--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9677,7 +9677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>425</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1082,256 +1079,6 @@
     <t>PID-11</t>
   </si>
   <si>
-    <t>Patient.address.id</t>
-  </si>
-  <si>
-    <t>Patient.address.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>Patient.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Patient.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>Patient.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>Patient.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>Patient.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>Patient.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>Patient.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
     <t>Patient.maritalStatus</t>
   </si>
   <si>
@@ -1429,6 +1176,10 @@
   </si>
   <si>
     <t>Need to track people you can contact about the patient.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/scopedRole[classCode=CON]</t>
@@ -1885,21 +1636,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2076,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2123,7 +1859,7 @@
     <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2249,7 +1985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2361,7 +2097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2475,7 +2211,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2587,7 +2323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2701,7 +2437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2815,7 +2551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2929,7 +2665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -3043,7 +2779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -3157,7 +2893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -3273,7 +3009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -3283,7 +3019,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>79</v>
@@ -3387,7 +3123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>143</v>
       </c>
@@ -3503,7 +3239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>156</v>
       </c>
@@ -3615,7 +3351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>162</v>
       </c>
@@ -3729,7 +3465,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>167</v>
       </c>
@@ -3845,7 +3581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>177</v>
       </c>
@@ -3961,7 +3697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -4077,7 +3813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>198</v>
       </c>
@@ -4191,7 +3927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>206</v>
       </c>
@@ -4303,7 +4039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>213</v>
       </c>
@@ -4417,7 +4153,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>143</v>
       </c>
@@ -4533,7 +4269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>156</v>
       </c>
@@ -4645,7 +4381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>162</v>
       </c>
@@ -4759,7 +4495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>167</v>
       </c>
@@ -4875,7 +4611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>177</v>
       </c>
@@ -4991,7 +4727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>188</v>
       </c>
@@ -5107,7 +4843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>198</v>
       </c>
@@ -5221,7 +4957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>206</v>
       </c>
@@ -5333,7 +5069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>213</v>
       </c>
@@ -5447,7 +5183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>143</v>
       </c>
@@ -5459,7 +5195,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5563,7 +5299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>156</v>
       </c>
@@ -5675,7 +5411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>162</v>
       </c>
@@ -5789,7 +5525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>167</v>
       </c>
@@ -5905,7 +5641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>177</v>
       </c>
@@ -6021,7 +5757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>188</v>
       </c>
@@ -6137,7 +5873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>198</v>
       </c>
@@ -6251,7 +5987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>206</v>
       </c>
@@ -6363,7 +6099,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>213</v>
       </c>
@@ -6477,7 +6213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>225</v>
       </c>
@@ -6487,7 +6223,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6595,7 +6331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>234</v>
       </c>
@@ -6693,7 +6429,7 @@
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>240</v>
@@ -6711,7 +6447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>243</v>
       </c>
@@ -6823,7 +6559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>244</v>
       </c>
@@ -6937,7 +6673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>245</v>
       </c>
@@ -7053,7 +6789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>255</v>
       </c>
@@ -7185,7 +6921,7 @@
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7299,7 +7035,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7397,7 +7133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>279</v>
       </c>
@@ -7509,7 +7245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>285</v>
       </c>
@@ -7621,7 +7357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>291</v>
       </c>
@@ -7748,10 +7484,10 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7867,7 +7603,7 @@
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7983,7 +7719,7 @@
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8083,7 +7819,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>327</v>
       </c>
@@ -8199,7 +7935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>335</v>
       </c>
@@ -8297,7 +8033,7 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>341</v>
@@ -8315,7 +8051,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>344</v>
       </c>
@@ -8340,16 +8076,18 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
+        <v>346</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8373,13 +8111,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8397,7 +8135,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>160</v>
+        <v>344</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8409,38 +8147,38 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>161</v>
+        <v>350</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8452,18 +8190,20 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>355</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8499,51 +8239,51 @@
         <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8554,31 +8294,31 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8591,7 +8331,7 @@
         <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>80</v>
@@ -8603,13 +8343,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8627,13 +8367,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -8642,24 +8382,24 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8670,7 +8410,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8679,21 +8419,23 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8705,7 +8447,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -8717,13 +8459,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8741,39 +8483,39 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>375</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>253</v>
+        <v>376</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8793,23 +8535,19 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>157</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>366</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8821,7 +8559,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8857,7 +8595,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8869,10 +8607,10 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -8881,7 +8619,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8889,11 +8627,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8903,24 +8641,26 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>373</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -8933,7 +8673,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -8969,7 +8709,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8981,10 +8721,10 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -8993,7 +8733,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9012,19 +8752,19 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>381</v>
@@ -9032,8 +8772,12 @@
       <c r="L61" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="M61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9045,58 +8789,58 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="T61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>385</v>
+        <v>129</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9105,7 +8849,7 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9113,41 +8857,41 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9159,7 +8903,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9171,13 +8915,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9195,13 +8939,13 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -9210,16 +8954,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9227,11 +8971,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9241,25 +8985,27 @@
         <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9307,7 +9053,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9322,35 +9068,35 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9359,19 +9105,23 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9383,7 +9133,7 @@
         <v>80</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>80</v>
@@ -9419,13 +9169,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9434,16 +9184,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>409</v>
+        <v>304</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9451,7 +9201,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9465,27 +9215,27 @@
         <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9533,7 +9283,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9548,24 +9298,24 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>416</v>
+        <v>341</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9585,20 +9335,20 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>419</v>
+        <v>308</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9611,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>80</v>
@@ -9623,13 +9373,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9647,7 +9397,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9662,24 +9412,24 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9702,17 +9452,17 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9737,13 +9487,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -9761,7 +9511,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9770,30 +9520,30 @@
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>432</v>
+        <v>161</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9816,20 +9566,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>435</v>
+        <v>207</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9877,7 +9623,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9892,7 +9638,7 @@
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>161</v>
@@ -9901,15 +9647,15 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9932,19 +9678,19 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>443</v>
+        <v>370</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
@@ -9993,7 +9739,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10008,24 +9754,24 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>161</v>
+        <v>428</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10036,7 +9782,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10048,20 +9794,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>451</v>
+        <v>157</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>452</v>
+        <v>158</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10109,13 +9851,13 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
@@ -10124,10 +9866,10 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>456</v>
+        <v>161</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10139,20 +9881,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10164,15 +9906,17 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10221,19 +9965,19 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>161</v>
@@ -10251,13 +9995,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10270,24 +10014,26 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10335,7 +10081,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10350,7 +10096,7 @@
         <v>137</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10365,44 +10111,44 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>135</v>
+        <v>435</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>141</v>
+        <v>436</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10427,13 +10173,13 @@
         <v>80</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>80</v>
@@ -10451,39 +10197,39 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>129</v>
+        <v>437</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10494,7 +10240,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -10506,17 +10252,19 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10541,13 +10289,13 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>80</v>
@@ -10565,13 +10313,13 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
@@ -10580,16 +10328,16 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>161</v>
+        <v>446</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -10597,21 +10345,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10620,18 +10368,18 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>235</v>
+        <v>450</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10679,13 +10427,13 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
@@ -10694,7 +10442,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>240</v>
+        <v>454</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>161</v>
@@ -10703,7 +10451,7 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -10711,7 +10459,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10719,34 +10467,34 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>303</v>
+        <v>460</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -10795,13 +10543,13 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>80</v>
@@ -10810,24 +10558,24 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>161</v>
+        <v>461</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10838,29 +10586,31 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="N77" t="s" s="2">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -10909,13 +10659,13 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
@@ -10924,7 +10674,7 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>161</v>
@@ -10933,15 +10683,15 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10964,18 +10714,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>488</v>
+        <v>159</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>489</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>80</v>
       </c>
@@ -10999,13 +10747,13 @@
         <v>80</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>80</v>
@@ -11023,7 +10771,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>487</v>
+        <v>160</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11035,38 +10783,38 @@
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
@@ -11078,18 +10826,18 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11137,71 +10885,75 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>491</v>
+        <v>166</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>496</v>
+        <v>161</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>499</v>
+        <v>381</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11249,25 +11001,25 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>498</v>
+        <v>383</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>501</v>
+        <v>129</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -11279,9 +11031,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11289,10 +11041,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11301,23 +11053,21 @@
         <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11365,13 +11115,13 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>80</v>
@@ -11380,24 +11130,24 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>507</v>
+        <v>151</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>508</v>
+        <v>161</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11405,7 +11155,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>86</v>
@@ -11417,16 +11167,16 @@
         <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>158</v>
+        <v>478</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11453,13 +11203,13 @@
         <v>80</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>80</v>
@@ -11477,10 +11227,10 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>160</v>
+        <v>477</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -11489,14 +11239,14 @@
         <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11504,1404 +11254,10 @@
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN94" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,7 +496,7 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>passport</t>
+    <t>PPN</t>
   </si>
   <si>
     <t>Patient.identifier.id</t>
@@ -699,13 +699,13 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>national</t>
+    <t>NID</t>
   </si>
   <si>
     <t>http://openhie.org/fhir/covid19-casereporting/identifier/nid</t>
   </si>
   <si>
-    <t>pos</t>
+    <t>FI</t>
   </si>
   <si>
     <t>http://openhie.org/fhir/covid19-casereporting/identifier/facility</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7484,7 +7484,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-patient</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-patient</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,6 +461,9 @@
     <t>Patient.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -481,7 +484,7 @@
     <t>Slice based on the type of identifier</t>
   </si>
   <si>
-    <t>open</t>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>id</t>
@@ -531,6 +534,9 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -703,12 +709,6 @@
   </si>
   <si>
     <t>http://openhie.org/fhir/covid19-casereporting/identifier/nid</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/identifier/facility</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1812,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>79</v>
@@ -3034,17 +3034,17 @@
         <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>80</v>
@@ -3081,16 +3081,16 @@
         <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>143</v>
@@ -3108,16 +3108,16 @@
         <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3128,14 +3128,14 @@
         <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>86</v>
@@ -3150,17 +3150,17 @@
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>80</v>
@@ -3224,16 +3224,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3264,13 +3264,13 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3321,7 +3321,7 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3336,7 +3336,7 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3382,7 +3382,7 @@
         <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>135</v>
@@ -3423,19 +3423,19 @@
         <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3450,7 +3450,7 @@
         <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3493,16 +3493,16 @@
         <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3527,13 +3527,13 @@
         <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3551,7 +3551,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3566,7 +3566,7 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3606,19 +3606,19 @@
         <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3643,13 +3643,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3667,7 +3667,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3682,7 +3682,7 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -3691,7 +3691,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3725,29 +3725,29 @@
         <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>80</v>
@@ -3783,7 +3783,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3798,7 +3798,7 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3807,7 +3807,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
@@ -3838,16 +3838,16 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3861,7 +3861,7 @@
         <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -3897,7 +3897,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3912,7 +3912,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -3921,7 +3921,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3952,13 +3952,13 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4009,7 +4009,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4024,7 +4024,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4033,7 +4033,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4064,16 +4064,16 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4123,7 +4123,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4138,7 +4138,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4147,7 +4147,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4158,14 +4158,14 @@
         <v>143</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
@@ -4180,17 +4180,17 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4254,16 +4254,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4294,13 +4294,13 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4351,7 +4351,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4366,7 +4366,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4412,7 +4412,7 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -4453,19 +4453,19 @@
         <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4480,7 +4480,7 @@
         <v>137</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4523,16 +4523,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4557,13 +4557,13 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
@@ -4581,7 +4581,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4596,7 +4596,7 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4636,19 +4636,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4673,13 +4673,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4697,7 +4697,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4712,7 +4712,7 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4721,7 +4721,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4755,29 +4755,29 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>80</v>
@@ -4813,7 +4813,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4828,7 +4828,7 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -4837,7 +4837,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4868,16 +4868,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4891,7 +4891,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -4927,7 +4927,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4942,7 +4942,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4951,7 +4951,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4982,13 +4982,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5039,7 +5039,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5054,7 +5054,7 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5063,7 +5063,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5094,16 +5094,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5153,7 +5153,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5168,7 +5168,7 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5177,7 +5177,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5185,11 +5185,9 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5204,28 +5202,32 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Q30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5269,13 +5271,13 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
@@ -5284,16 +5286,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5301,7 +5303,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5312,7 +5314,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5321,19 +5323,23 @@
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5381,31 +5387,31 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5413,18 +5419,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5436,17 +5442,15 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5483,34 +5487,34 @@
         <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5527,43 +5531,41 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5587,46 +5589,46 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5635,7 +5637,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5643,7 +5645,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5660,25 +5662,25 @@
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5703,13 +5705,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5727,7 +5729,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5742,7 +5744,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5751,7 +5753,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5759,7 +5761,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5767,7 +5769,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5782,19 +5784,19 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5804,10 +5806,10 @@
         <v>80</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -5843,7 +5845,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5858,7 +5860,7 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5867,7 +5869,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5875,11 +5877,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5898,16 +5900,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5921,7 +5923,7 @@
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -5957,7 +5959,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5972,7 +5974,7 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -5981,7 +5983,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5989,18 +5991,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -6012,15 +6014,17 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6069,13 +6073,13 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
@@ -6084,7 +6088,7 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6093,7 +6097,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6101,7 +6105,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6112,7 +6116,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6124,17 +6128,15 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6183,13 +6185,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6198,7 +6200,7 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6207,7 +6209,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6215,7 +6217,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6223,41 +6225,35 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P39" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6301,13 +6297,13 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
@@ -6316,16 +6312,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6333,7 +6329,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6344,7 +6340,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6356,19 +6352,17 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6417,13 +6411,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6432,16 +6426,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6449,7 +6443,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6460,7 +6454,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6469,19 +6463,23 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6529,31 +6527,31 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6561,18 +6559,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6581,21 +6579,23 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6619,55 +6619,55 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6692,25 +6692,25 @@
         <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6735,13 +6735,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6759,7 +6759,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6774,24 +6774,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6808,25 +6808,25 @@
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6875,7 +6875,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6890,16 +6890,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>262</v>
+        <v>334</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -6907,18 +6907,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -6930,18 +6930,20 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -6989,13 +6991,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7004,16 +7006,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>270</v>
+        <v>343</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7021,18 +7023,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7041,21 +7043,21 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7079,13 +7081,13 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7103,13 +7105,13 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
@@ -7118,16 +7120,16 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7135,7 +7137,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7146,7 +7148,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7155,19 +7157,23 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7215,13 +7221,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7230,16 +7236,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>283</v>
+        <v>359</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7247,7 +7253,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7267,19 +7273,23 @@
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7327,7 +7337,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7342,16 +7352,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7359,7 +7369,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7370,7 +7380,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7379,20 +7389,22 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7441,31 +7453,31 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>375</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7473,7 +7485,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7484,7 +7496,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -7493,23 +7505,19 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7557,31 +7565,31 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7589,18 +7597,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7609,23 +7617,21 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7649,13 +7655,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7673,31 +7679,31 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7705,42 +7711,42 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7789,39 +7795,39 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7832,31 +7838,29 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -7881,13 +7885,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -7905,13 +7909,13 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -7920,16 +7924,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -7937,7 +7941,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7948,7 +7952,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -7957,22 +7961,20 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8021,13 +8023,13 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
@@ -8036,16 +8038,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8053,7 +8055,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8064,7 +8066,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8076,17 +8078,19 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8111,13 +8115,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8135,13 +8139,13 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8150,16 +8154,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>351</v>
+        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8167,7 +8171,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8190,19 +8194,17 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8251,7 +8253,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8266,16 +8268,16 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8283,7 +8285,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8294,7 +8296,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8306,19 +8308,17 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8343,13 +8343,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8367,13 +8367,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -8382,16 +8382,16 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8410,7 +8410,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8422,19 +8422,17 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>370</v>
+        <v>216</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8483,31 +8481,31 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8515,7 +8513,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8538,13 +8536,13 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>158</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>159</v>
+        <v>420</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8595,7 +8593,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8607,13 +8605,13 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8627,11 +8625,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8650,18 +8648,20 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>163</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>166</v>
+        <v>422</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8721,13 +8721,13 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8741,43 +8741,39 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>381</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8825,22 +8821,22 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>383</v>
+        <v>161</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -8857,11 +8853,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8880,18 +8876,18 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>385</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8915,13 +8911,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -8939,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8951,19 +8947,19 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -8971,40 +8967,42 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>395</v>
+        <v>141</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9053,31 +9051,31 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9085,7 +9083,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9093,10 +9091,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9108,19 +9106,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>303</v>
+        <v>436</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9145,13 +9143,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9169,13 +9167,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9184,16 +9182,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>161</v>
+        <v>438</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9201,7 +9199,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9224,17 +9222,19 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9283,7 +9283,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9298,16 +9298,16 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>341</v>
+        <v>445</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>161</v>
+        <v>446</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9315,18 +9315,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9338,18 +9338,18 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>106</v>
+        <v>450</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>308</v>
+        <v>451</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9373,13 +9373,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9397,13 +9397,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9412,16 +9412,16 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
@@ -9449,20 +9449,22 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9511,7 +9513,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9520,7 +9522,7 @@
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>98</v>
@@ -9529,13 +9531,13 @@
         <v>416</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>161</v>
+        <v>461</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -9543,7 +9545,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9554,28 +9556,32 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9623,13 +9629,13 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
@@ -9638,10 +9644,10 @@
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9655,7 +9661,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9666,7 +9672,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9678,20 +9684,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>370</v>
+        <v>158</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>423</v>
+        <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9739,25 +9741,25 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>422</v>
+        <v>161</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>427</v>
+        <v>162</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -9771,18 +9773,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -9794,15 +9796,17 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -9851,22 +9855,22 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -9883,11 +9887,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9900,24 +9904,26 @@
         <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>163</v>
+        <v>382</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -9965,7 +9971,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -9980,7 +9986,7 @@
         <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -9997,43 +10003,41 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>472</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>381</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10081,31 +10085,31 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>383</v>
+        <v>471</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10113,7 +10117,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10133,23 +10137,19 @@
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10173,13 +10173,13 @@
         <v>80</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>111</v>
+        <v>479</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>112</v>
+        <v>480</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>80</v>
@@ -10197,7 +10197,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>86</v>
@@ -10212,1048 +10212,18 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>438</v>
+        <v>162</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-patient.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
